--- a/ParallelRepo/RaportDotVector.xlsx
+++ b/ParallelRepo/RaportDotVector.xlsx
@@ -348,11 +348,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1399661200"/>
-        <c:axId val="1399660112"/>
+        <c:axId val="137765392"/>
+        <c:axId val="137773552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1399661200"/>
+        <c:axId val="137765392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +452,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1399660112"/>
+        <c:crossAx val="137773552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -460,7 +460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1399660112"/>
+        <c:axId val="137773552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +568,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1399661200"/>
+        <c:crossAx val="137765392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -789,16 +789,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.41109618996166813</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23914074760103937</c:v>
+                  <c:v>1.719055385105275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18445422036994163</c:v>
+                  <c:v>2.2287166384004284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.165308842067351</c:v>
+                  <c:v>2.4868372727102956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,16 +841,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.41265427060444898</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2383489971497435</c:v>
+                  <c:v>1.7313027348094847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18594928321914078</c:v>
+                  <c:v>2.2191764520981612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16304744902666685</c:v>
+                  <c:v>2.5308845558016566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,11 +866,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1664217536"/>
-        <c:axId val="1664218080"/>
+        <c:axId val="137780624"/>
+        <c:axId val="137780080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1664217536"/>
+        <c:axId val="137780624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +970,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664218080"/>
+        <c:crossAx val="137780080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -978,7 +978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1664218080"/>
+        <c:axId val="137780080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1086,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664217536"/>
+        <c:crossAx val="137780624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2595,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,8 +2798,8 @@
         <v>3.9949300000000001</v>
       </c>
       <c r="E21">
-        <f>D21/SUM($D$21:$D$24)</f>
-        <v>0.41109618996166813</v>
+        <f>$D$21/D21</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,8 +2816,8 @@
         <v>2.3239100000000001</v>
       </c>
       <c r="E22">
-        <f>D22/SUM($D$21:$D$24)</f>
-        <v>0.23914074760103937</v>
+        <f t="shared" ref="E22:E24" si="0">$D$21/D22</f>
+        <v>1.719055385105275</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2834,8 +2834,8 @@
         <v>1.7924800000000001</v>
       </c>
       <c r="E23">
-        <f>D23/SUM($D$21:$D$24)</f>
-        <v>0.18445422036994163</v>
+        <f t="shared" si="0"/>
+        <v>2.2287166384004284</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,8 +2852,8 @@
         <v>1.60643</v>
       </c>
       <c r="E24">
-        <f>D24/SUM($D$21:$D$24)</f>
-        <v>0.165308842067351</v>
+        <f t="shared" si="0"/>
+        <v>2.4868372727102956</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2887,8 +2887,8 @@
         <v>98.8399</v>
       </c>
       <c r="E27">
-        <f>D27/SUM($D$27:$D$30)</f>
-        <v>0.41265427060444898</v>
+        <f>$D$27/D27</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,8 +2905,8 @@
         <v>57.0899</v>
       </c>
       <c r="E28">
-        <f>D28/SUM($D$27:$D$30)</f>
-        <v>0.2383489971497435</v>
+        <f t="shared" ref="E28:E30" si="1">$D$27/D28</f>
+        <v>1.7313027348094847</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2923,8 +2923,8 @@
         <v>44.539000000000001</v>
       </c>
       <c r="E29">
-        <f>D29/SUM($D$27:$D$30)</f>
-        <v>0.18594928321914078</v>
+        <f t="shared" si="1"/>
+        <v>2.2191764520981612</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,8 +2941,8 @@
         <v>39.0535</v>
       </c>
       <c r="E30">
-        <f>D30/SUM($D$27:$D$30)</f>
-        <v>0.16304744902666685</v>
+        <f t="shared" si="1"/>
+        <v>2.5308845558016566</v>
       </c>
     </row>
   </sheetData>
